--- a/C Controller/simulation_datasets.xlsx
+++ b/C Controller/simulation_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inver\OneDrive\Desktop\C Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCB58EF-3415-4A0A-8A43-6D3CA78B4547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D89C8-8362-432A-9C73-91F2139A44F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BF02C6E6-7C03-4F57-88F0-FD147FC419EC}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="constant_veloity_turn" sheetId="1" r:id="rId1"/>
     <sheet name="hard_turn" sheetId="2" r:id="rId2"/>
     <sheet name="straight_accel" sheetId="3" r:id="rId3"/>
-    <sheet name="slingshot" sheetId="4" r:id="rId4"/>
+    <sheet name="constant_torque" sheetId="6" r:id="rId4"/>
+    <sheet name="slingshot" sheetId="4" r:id="rId5"/>
+    <sheet name="velocity_test" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
   <si>
     <t>time</t>
   </si>
@@ -1271,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000F7C5-A31E-4C02-ADFF-788699BD56ED}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2797,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="B2:M22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3715,10 +3717,927 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1F29E-C487-477C-A176-7E7F6D836544}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>-10000</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>-10000</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>-10000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>-10000</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>-10000</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>-10000</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>-10000</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>-10000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>-10000</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>-10000</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>-10000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>-10000</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>-10000</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>-10000</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>-10000</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>-10000</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>-10000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.4</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>-10000</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-10000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>-10000</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.4</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>-10000</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB44BC-6D82-4D29-A730-CAC1A2674E43}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -4683,4 +5602,2832 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35877203-A9BC-46D7-9778-000619998117}">
+  <dimension ref="A1:I97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>-3000</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>-3000</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>-3000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>-3000</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>-3000</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>-3000</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>-3000</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>-3000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>-3000</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>-3000</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>-3000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>-3000</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>-3000</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>-3000</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>-3000</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>-3000</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>-3000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>-3000</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-3000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>-3000</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>-3000</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>60000</v>
+      </c>
+      <c r="D23">
+        <v>-3000</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>60000</v>
+      </c>
+      <c r="D24">
+        <v>-3000</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>60000</v>
+      </c>
+      <c r="D25">
+        <v>-3000</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <v>-3000</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>60000</v>
+      </c>
+      <c r="D27">
+        <v>-3000</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>60000</v>
+      </c>
+      <c r="D28">
+        <v>-3000</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>60000</v>
+      </c>
+      <c r="D29">
+        <v>-3000</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>60000</v>
+      </c>
+      <c r="D30">
+        <v>-3000</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>60000</v>
+      </c>
+      <c r="D31">
+        <v>-3000</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>60000</v>
+      </c>
+      <c r="D32">
+        <v>-3000</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>60000</v>
+      </c>
+      <c r="D33">
+        <v>-3000</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>-3000</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>60000</v>
+      </c>
+      <c r="D35">
+        <v>-3000</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>60000</v>
+      </c>
+      <c r="D36">
+        <v>-3000</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>60000</v>
+      </c>
+      <c r="D37">
+        <v>-3000</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>60000</v>
+      </c>
+      <c r="D38">
+        <v>-3000</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>60000</v>
+      </c>
+      <c r="D39">
+        <v>-3000</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
+      </c>
+      <c r="D40">
+        <v>-3000</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>60000</v>
+      </c>
+      <c r="D41">
+        <v>-3000</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>60000</v>
+      </c>
+      <c r="D42">
+        <v>-3000</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>60000</v>
+      </c>
+      <c r="D43">
+        <v>-3000</v>
+      </c>
+      <c r="E43">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>60000</v>
+      </c>
+      <c r="D44">
+        <v>-3000</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>60000</v>
+      </c>
+      <c r="D45">
+        <v>-3000</v>
+      </c>
+      <c r="E45">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>60000</v>
+      </c>
+      <c r="D46">
+        <v>-3000</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>60000</v>
+      </c>
+      <c r="D47">
+        <v>-3000</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <v>-3000</v>
+      </c>
+      <c r="E48">
+        <v>300</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>60000</v>
+      </c>
+      <c r="D49">
+        <v>-3000</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>60000</v>
+      </c>
+      <c r="D50">
+        <v>-3000</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>60000</v>
+      </c>
+      <c r="D51">
+        <v>-3000</v>
+      </c>
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>60000</v>
+      </c>
+      <c r="D52">
+        <v>-3000</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>60000</v>
+      </c>
+      <c r="D53">
+        <v>-3000</v>
+      </c>
+      <c r="E53">
+        <v>300</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>60000</v>
+      </c>
+      <c r="D54">
+        <v>-3000</v>
+      </c>
+      <c r="E54">
+        <v>300</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>60000</v>
+      </c>
+      <c r="D55">
+        <v>-3000</v>
+      </c>
+      <c r="E55">
+        <v>300</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>60000</v>
+      </c>
+      <c r="D56">
+        <v>-3000</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>60000</v>
+      </c>
+      <c r="D57">
+        <v>-3000</v>
+      </c>
+      <c r="E57">
+        <v>300</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>60000</v>
+      </c>
+      <c r="D58">
+        <v>-3000</v>
+      </c>
+      <c r="E58">
+        <v>300</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>60000</v>
+      </c>
+      <c r="D59">
+        <v>-3000</v>
+      </c>
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>60000</v>
+      </c>
+      <c r="D60">
+        <v>-3000</v>
+      </c>
+      <c r="E60">
+        <v>300</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>60000</v>
+      </c>
+      <c r="D61">
+        <v>-3000</v>
+      </c>
+      <c r="E61">
+        <v>300</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>60000</v>
+      </c>
+      <c r="D62">
+        <v>-3000</v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>60000</v>
+      </c>
+      <c r="D63">
+        <v>-3000</v>
+      </c>
+      <c r="E63">
+        <v>300</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>60000</v>
+      </c>
+      <c r="D64">
+        <v>-3000</v>
+      </c>
+      <c r="E64">
+        <v>300</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>60000</v>
+      </c>
+      <c r="D65">
+        <v>-3000</v>
+      </c>
+      <c r="E65">
+        <v>300</v>
+      </c>
+      <c r="F65">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>60000</v>
+      </c>
+      <c r="D66">
+        <v>-3000</v>
+      </c>
+      <c r="E66">
+        <v>300</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>60000</v>
+      </c>
+      <c r="D67">
+        <v>-3000</v>
+      </c>
+      <c r="E67">
+        <v>300</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>60000</v>
+      </c>
+      <c r="D68">
+        <v>-3000</v>
+      </c>
+      <c r="E68">
+        <v>300</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>60000</v>
+      </c>
+      <c r="D69">
+        <v>-3000</v>
+      </c>
+      <c r="E69">
+        <v>300</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>60000</v>
+      </c>
+      <c r="D70">
+        <v>-3000</v>
+      </c>
+      <c r="E70">
+        <v>300</v>
+      </c>
+      <c r="F70">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>60000</v>
+      </c>
+      <c r="D71">
+        <v>-3000</v>
+      </c>
+      <c r="E71">
+        <v>300</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>60000</v>
+      </c>
+      <c r="D72">
+        <v>-3000</v>
+      </c>
+      <c r="E72">
+        <v>300</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>60000</v>
+      </c>
+      <c r="D73">
+        <v>-3000</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>60000</v>
+      </c>
+      <c r="D74">
+        <v>-3000</v>
+      </c>
+      <c r="E74">
+        <v>300</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>60000</v>
+      </c>
+      <c r="D75">
+        <v>-3000</v>
+      </c>
+      <c r="E75">
+        <v>300</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>60000</v>
+      </c>
+      <c r="D76">
+        <v>-3000</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>60000</v>
+      </c>
+      <c r="D77">
+        <v>-3000</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>60000</v>
+      </c>
+      <c r="D78">
+        <v>-3000</v>
+      </c>
+      <c r="E78">
+        <v>300</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>60000</v>
+      </c>
+      <c r="D79">
+        <v>-3000</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>60000</v>
+      </c>
+      <c r="D80">
+        <v>-3000</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>60000</v>
+      </c>
+      <c r="D81">
+        <v>-3000</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>60000</v>
+      </c>
+      <c r="D82">
+        <v>-3000</v>
+      </c>
+      <c r="E82">
+        <v>300</v>
+      </c>
+      <c r="F82">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>60000</v>
+      </c>
+      <c r="D83">
+        <v>-3000</v>
+      </c>
+      <c r="E83">
+        <v>300</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>60000</v>
+      </c>
+      <c r="D84">
+        <v>-3000</v>
+      </c>
+      <c r="E84">
+        <v>300</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>60000</v>
+      </c>
+      <c r="D85">
+        <v>-3000</v>
+      </c>
+      <c r="E85">
+        <v>300</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>60000</v>
+      </c>
+      <c r="D86">
+        <v>-3000</v>
+      </c>
+      <c r="E86">
+        <v>300</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>60000</v>
+      </c>
+      <c r="D87">
+        <v>-3000</v>
+      </c>
+      <c r="E87">
+        <v>300</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>60000</v>
+      </c>
+      <c r="D88">
+        <v>-3000</v>
+      </c>
+      <c r="E88">
+        <v>300</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>60000</v>
+      </c>
+      <c r="D89">
+        <v>-3000</v>
+      </c>
+      <c r="E89">
+        <v>300</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>60000</v>
+      </c>
+      <c r="D90">
+        <v>-3000</v>
+      </c>
+      <c r="E90">
+        <v>300</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>60000</v>
+      </c>
+      <c r="D91">
+        <v>-3000</v>
+      </c>
+      <c r="E91">
+        <v>300</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>60000</v>
+      </c>
+      <c r="D92">
+        <v>-3000</v>
+      </c>
+      <c r="E92">
+        <v>300</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>60000</v>
+      </c>
+      <c r="D93">
+        <v>-3000</v>
+      </c>
+      <c r="E93">
+        <v>300</v>
+      </c>
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>60000</v>
+      </c>
+      <c r="D94">
+        <v>-3000</v>
+      </c>
+      <c r="E94">
+        <v>300</v>
+      </c>
+      <c r="F94">
+        <v>15</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>60000</v>
+      </c>
+      <c r="D95">
+        <v>-3000</v>
+      </c>
+      <c r="E95">
+        <v>300</v>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>60000</v>
+      </c>
+      <c r="D96">
+        <v>-3000</v>
+      </c>
+      <c r="E96">
+        <v>300</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>60000</v>
+      </c>
+      <c r="D97">
+        <v>-3000</v>
+      </c>
+      <c r="E97">
+        <v>300</v>
+      </c>
+      <c r="F97">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C Controller/simulation_datasets.xlsx
+++ b/C Controller/simulation_datasets.xlsx
@@ -8,40 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inver\OneDrive\Desktop\C Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D89C8-8362-432A-9C73-91F2139A44F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF70B3-FD3E-4368-BE58-E060BEC61F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BF02C6E6-7C03-4F57-88F0-FD147FC419EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant_veloity_turn" sheetId="1" r:id="rId1"/>
     <sheet name="hard_turn" sheetId="2" r:id="rId2"/>
     <sheet name="straight_accel" sheetId="3" r:id="rId3"/>
-    <sheet name="constant_torque" sheetId="6" r:id="rId4"/>
-    <sheet name="slingshot" sheetId="4" r:id="rId5"/>
-    <sheet name="velocity_test" sheetId="5" r:id="rId6"/>
+    <sheet name="constant_torque" sheetId="4" r:id="rId4"/>
+    <sheet name="slingshot" sheetId="5" r:id="rId5"/>
+    <sheet name="velocity_test" sheetId="6" r:id="rId6"/>
+    <sheet name="brake_test" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="15">
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>driver_input</t>
+  </si>
+  <si>
+    <t>P_A</t>
+  </si>
+  <si>
+    <t>B_A</t>
+  </si>
+  <si>
+    <t>batt_temp</t>
+  </si>
+  <si>
+    <t>steering_angle</t>
   </si>
   <si>
     <t>wind x</t>
@@ -65,19 +72,10 @@
     <t>b_RR</t>
   </si>
   <si>
-    <t>batt_temp</t>
+    <t>pressure_front</t>
   </si>
   <si>
-    <t>P_A</t>
-  </si>
-  <si>
-    <t>B_A</t>
-  </si>
-  <si>
-    <t>driver_input</t>
-  </si>
-  <si>
-    <t>steering_angle</t>
+    <t>pressure_rear</t>
   </si>
 </sst>
 </file>
@@ -87,10 +85,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,20 +426,2825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44C769-8558-4087-85EA-24BCEBF1A080}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>-10000</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>-10000</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>-10000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>-10000</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>-10000</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>-10000</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>-10000</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>-10000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>-10000</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>-10000</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>-10000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>-10000</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>-10000</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>-10000</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>-10000</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>-10000</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>-10000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>-10000</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-10000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>-3000</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>-3000</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>-3000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>-3000</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>-3000</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>-3000</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.5</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>-3000</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>-3000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>-3000</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8.5</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>-3000</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>-3000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>-3000</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11.5</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>-3000</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>-3000</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>-3000</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>-3000</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>-3000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>22.5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16.5</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>-3000</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>22.5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-3000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>22.5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>-3000</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19.5</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>-3000</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>60000</v>
+      </c>
+      <c r="D23">
+        <v>-3000</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>60000</v>
+      </c>
+      <c r="D24">
+        <v>-3000</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>7.5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22.5</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>60000</v>
+      </c>
+      <c r="D25">
+        <v>-3000</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>7.5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <v>-3000</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26">
+        <v>7.5</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24.5</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>60000</v>
+      </c>
+      <c r="D27">
+        <v>-3000</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>-7.5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>60000</v>
+      </c>
+      <c r="D28">
+        <v>-3000</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="F28">
+        <v>-7.5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26.3</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>60000</v>
+      </c>
+      <c r="D29">
+        <v>-3000</v>
+      </c>
+      <c r="E29">
+        <v>300</v>
+      </c>
+      <c r="F29">
+        <v>-7.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>60000</v>
+      </c>
+      <c r="D30">
+        <v>-3000</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>-10</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>60000</v>
+      </c>
+      <c r="D31">
+        <v>-3000</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31">
+        <v>-10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29.5</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>60000</v>
+      </c>
+      <c r="D32">
+        <v>-3000</v>
+      </c>
+      <c r="E32">
+        <v>300</v>
+      </c>
+      <c r="F32">
+        <v>-10</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>60000</v>
+      </c>
+      <c r="D33">
+        <v>-3000</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>-15</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
+      </c>
+      <c r="D34">
+        <v>-3000</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>-15</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32.5</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>60000</v>
+      </c>
+      <c r="D35">
+        <v>-3000</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>-15</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>60000</v>
+      </c>
+      <c r="D36">
+        <v>-3000</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>-25</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>60000</v>
+      </c>
+      <c r="D37">
+        <v>-3000</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37">
+        <v>-25</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36.5</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>60000</v>
+      </c>
+      <c r="D38">
+        <v>-3000</v>
+      </c>
+      <c r="E38">
+        <v>300</v>
+      </c>
+      <c r="F38">
+        <v>-25</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>60000</v>
+      </c>
+      <c r="D39">
+        <v>-3000</v>
+      </c>
+      <c r="E39">
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <v>-20</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
+      </c>
+      <c r="D40">
+        <v>-3000</v>
+      </c>
+      <c r="E40">
+        <v>300</v>
+      </c>
+      <c r="F40">
+        <v>-20</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38.5</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>60000</v>
+      </c>
+      <c r="D41">
+        <v>-3000</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>-20</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>60000</v>
+      </c>
+      <c r="D42">
+        <v>-3000</v>
+      </c>
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>-17.5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>60000</v>
+      </c>
+      <c r="D43">
+        <v>-3000</v>
+      </c>
+      <c r="E43">
+        <v>300</v>
+      </c>
+      <c r="F43">
+        <v>-17.5</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>41.5</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>60000</v>
+      </c>
+      <c r="D44">
+        <v>-3000</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>-17.5</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>60000</v>
+      </c>
+      <c r="D45">
+        <v>-3000</v>
+      </c>
+      <c r="E45">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>-10</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>60000</v>
+      </c>
+      <c r="D46">
+        <v>-3000</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <v>-10</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>44.5</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>60000</v>
+      </c>
+      <c r="D47">
+        <v>-3000</v>
+      </c>
+      <c r="E47">
+        <v>300</v>
+      </c>
+      <c r="F47">
+        <v>-10</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <v>-3000</v>
+      </c>
+      <c r="E48">
+        <v>300</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>60000</v>
+      </c>
+      <c r="D49">
+        <v>-3000</v>
+      </c>
+      <c r="E49">
+        <v>300</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47.5</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>60000</v>
+      </c>
+      <c r="D50">
+        <v>-3000</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>60000</v>
+      </c>
+      <c r="D51">
+        <v>-3000</v>
+      </c>
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>60000</v>
+      </c>
+      <c r="D52">
+        <v>-3000</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -449,40 +3252,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -490,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>60000</v>
@@ -528,10 +3331,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>60000</v>
@@ -569,10 +3372,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>60000</v>
@@ -584,7 +3387,7 @@
         <v>300</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -610,10 +3413,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>60000</v>
@@ -625,7 +3428,7 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -651,10 +3454,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>60000</v>
@@ -666,7 +3469,7 @@
         <v>300</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -692,10 +3495,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -707,7 +3510,7 @@
         <v>300</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -733,10 +3536,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>60000</v>
@@ -748,7 +3551,7 @@
         <v>300</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -774,10 +3577,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>60000</v>
@@ -789,7 +3592,7 @@
         <v>300</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -815,10 +3618,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>60000</v>
@@ -830,7 +3633,7 @@
         <v>300</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -856,10 +3659,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>60000</v>
@@ -871,7 +3674,7 @@
         <v>300</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -897,10 +3700,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C12">
         <v>60000</v>
@@ -912,7 +3715,7 @@
         <v>300</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -938,10 +3741,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C13">
         <v>60000</v>
@@ -953,7 +3756,7 @@
         <v>300</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -979,10 +3782,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C14">
         <v>60000</v>
@@ -994,7 +3797,7 @@
         <v>300</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1020,10 +3823,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C15">
         <v>60000</v>
@@ -1035,7 +3838,7 @@
         <v>300</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1061,10 +3864,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C16">
         <v>60000</v>
@@ -1076,7 +3879,7 @@
         <v>300</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1102,10 +3905,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C17">
         <v>60000</v>
@@ -1117,7 +3920,7 @@
         <v>300</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1143,10 +3946,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C18">
         <v>60000</v>
@@ -1158,7 +3961,7 @@
         <v>300</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1184,10 +3987,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="C19">
         <v>60000</v>
@@ -1199,7 +4002,7 @@
         <v>300</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1225,101 +4028,196 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-30</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-10000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-30</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>-10000</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>60000</v>
-      </c>
-      <c r="D20">
-        <v>-10000</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="B22">
+        <v>-30</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>-10000</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000F7C5-A31E-4C02-ADFF-788699BD56ED}">
-  <dimension ref="A1:I52"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
         <v>60000</v>
       </c>
       <c r="D2">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E2">
         <v>300</v>
@@ -1336,19 +4234,31 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
         <v>60000</v>
       </c>
       <c r="D3">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -1365,19 +4275,31 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
         <v>60000</v>
       </c>
       <c r="D4">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -1394,19 +4316,31 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <v>60000</v>
       </c>
       <c r="D5">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E5">
         <v>300</v>
@@ -1423,19 +4357,31 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
         <v>60000</v>
       </c>
       <c r="D6">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E6">
         <v>300</v>
@@ -1452,19 +4398,31 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
         <v>60000</v>
       </c>
       <c r="D7">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E7">
         <v>300</v>
@@ -1481,25 +4439,37 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
         <v>60000</v>
       </c>
       <c r="D8">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E8">
         <v>300</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1510,25 +4480,37 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
         <v>60000</v>
       </c>
       <c r="D9">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E9">
         <v>300</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1539,25 +4521,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
         <v>60000</v>
       </c>
       <c r="D10">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E10">
         <v>300</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1568,25 +4562,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
         <v>60000</v>
       </c>
       <c r="D11">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E11">
         <v>300</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1597,25 +4603,37 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
         <v>60000</v>
       </c>
       <c r="D12">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E12">
         <v>300</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1626,25 +4644,37 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
         <v>60000</v>
       </c>
       <c r="D13">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E13">
         <v>300</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1655,25 +4685,37 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
         <v>60000</v>
       </c>
       <c r="D14">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E14">
         <v>300</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1684,25 +4726,37 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
         <v>60000</v>
       </c>
       <c r="D15">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E15">
         <v>300</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1713,25 +4767,37 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
         <v>60000</v>
       </c>
       <c r="D16">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E16">
         <v>300</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1742,25 +4808,37 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
         <v>60000</v>
       </c>
       <c r="D17">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E17">
         <v>300</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1771,25 +4849,37 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
         <v>60000</v>
       </c>
       <c r="D18">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E18">
         <v>300</v>
       </c>
       <c r="F18">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1800,25 +4890,37 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
         <v>60000</v>
       </c>
       <c r="D19">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E19">
         <v>300</v>
       </c>
       <c r="F19">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1829,25 +4931,37 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
         <v>60000</v>
       </c>
       <c r="D20">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
       <c r="F20">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1858,54 +4972,78 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
         <v>60000</v>
       </c>
       <c r="D21">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E21">
         <v>300</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19.5</v>
-      </c>
       <c r="B22">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
         <v>60000</v>
       </c>
       <c r="D22">
-        <v>-3000</v>
+        <v>-10000</v>
       </c>
       <c r="E22">
         <v>300</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1916,897 +5054,46 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>60000</v>
-      </c>
-      <c r="D23">
-        <v>-3000</v>
-      </c>
-      <c r="E23">
-        <v>300</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>60000</v>
-      </c>
-      <c r="D24">
-        <v>-3000</v>
-      </c>
-      <c r="E24">
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>7.5</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>22.5</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>60000</v>
-      </c>
-      <c r="D25">
-        <v>-3000</v>
-      </c>
-      <c r="E25">
-        <v>300</v>
-      </c>
-      <c r="F25">
-        <v>7.5</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>60000</v>
-      </c>
-      <c r="D26">
-        <v>-3000</v>
-      </c>
-      <c r="E26">
-        <v>300</v>
-      </c>
-      <c r="F26">
-        <v>7.5</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>24.5</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>60000</v>
-      </c>
-      <c r="D27">
-        <v>-3000</v>
-      </c>
-      <c r="E27">
-        <v>300</v>
-      </c>
-      <c r="F27">
-        <v>-7.5</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>60000</v>
-      </c>
-      <c r="D28">
-        <v>-3000</v>
-      </c>
-      <c r="E28">
-        <v>300</v>
-      </c>
-      <c r="F28">
-        <v>-7.5</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>26.3</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>60000</v>
-      </c>
-      <c r="D29">
-        <v>-3000</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
-      </c>
-      <c r="F29">
-        <v>-7.5</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>60000</v>
-      </c>
-      <c r="D30">
-        <v>-3000</v>
-      </c>
-      <c r="E30">
-        <v>300</v>
-      </c>
-      <c r="F30">
-        <v>-10</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>60000</v>
-      </c>
-      <c r="D31">
-        <v>-3000</v>
-      </c>
-      <c r="E31">
-        <v>300</v>
-      </c>
-      <c r="F31">
-        <v>-10</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>29.5</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>60000</v>
-      </c>
-      <c r="D32">
-        <v>-3000</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
-      </c>
-      <c r="F32">
-        <v>-10</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>60000</v>
-      </c>
-      <c r="D33">
-        <v>-3000</v>
-      </c>
-      <c r="E33">
-        <v>300</v>
-      </c>
-      <c r="F33">
-        <v>-15</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>60000</v>
-      </c>
-      <c r="D34">
-        <v>-3000</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34">
-        <v>-15</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>32.5</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>60000</v>
-      </c>
-      <c r="D35">
-        <v>-3000</v>
-      </c>
-      <c r="E35">
-        <v>300</v>
-      </c>
-      <c r="F35">
-        <v>-15</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>60000</v>
-      </c>
-      <c r="D36">
-        <v>-3000</v>
-      </c>
-      <c r="E36">
-        <v>300</v>
-      </c>
-      <c r="F36">
-        <v>-25</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>60000</v>
-      </c>
-      <c r="D37">
-        <v>-3000</v>
-      </c>
-      <c r="E37">
-        <v>300</v>
-      </c>
-      <c r="F37">
-        <v>-25</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36.5</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>60000</v>
-      </c>
-      <c r="D38">
-        <v>-3000</v>
-      </c>
-      <c r="E38">
-        <v>300</v>
-      </c>
-      <c r="F38">
-        <v>-25</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>60000</v>
-      </c>
-      <c r="D39">
-        <v>-3000</v>
-      </c>
-      <c r="E39">
-        <v>300</v>
-      </c>
-      <c r="F39">
-        <v>-30</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>60000</v>
-      </c>
-      <c r="D40">
-        <v>-3000</v>
-      </c>
-      <c r="E40">
-        <v>300</v>
-      </c>
-      <c r="F40">
-        <v>-30</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>38.5</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>60000</v>
-      </c>
-      <c r="D41">
-        <v>-3000</v>
-      </c>
-      <c r="E41">
-        <v>300</v>
-      </c>
-      <c r="F41">
-        <v>-30</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>60000</v>
-      </c>
-      <c r="D42">
-        <v>-3000</v>
-      </c>
-      <c r="E42">
-        <v>300</v>
-      </c>
-      <c r="F42">
-        <v>-17.5</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>60000</v>
-      </c>
-      <c r="D43">
-        <v>-3000</v>
-      </c>
-      <c r="E43">
-        <v>300</v>
-      </c>
-      <c r="F43">
-        <v>-17.5</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>41.5</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>60000</v>
-      </c>
-      <c r="D44">
-        <v>-3000</v>
-      </c>
-      <c r="E44">
-        <v>300</v>
-      </c>
-      <c r="F44">
-        <v>-17.5</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>60000</v>
-      </c>
-      <c r="D45">
-        <v>-3000</v>
-      </c>
-      <c r="E45">
-        <v>300</v>
-      </c>
-      <c r="F45">
-        <v>-10</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>60000</v>
-      </c>
-      <c r="D46">
-        <v>-3000</v>
-      </c>
-      <c r="E46">
-        <v>300</v>
-      </c>
-      <c r="F46">
-        <v>-10</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>44.5</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>60000</v>
-      </c>
-      <c r="D47">
-        <v>-3000</v>
-      </c>
-      <c r="E47">
-        <v>300</v>
-      </c>
-      <c r="F47">
-        <v>-10</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48">
-        <v>60000</v>
-      </c>
-      <c r="D48">
-        <v>-3000</v>
-      </c>
-      <c r="E48">
-        <v>300</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>60000</v>
-      </c>
-      <c r="D49">
-        <v>-3000</v>
-      </c>
-      <c r="E49">
-        <v>300</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>47.5</v>
-      </c>
-      <c r="B50">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>60000</v>
-      </c>
-      <c r="D50">
-        <v>-3000</v>
-      </c>
-      <c r="E50">
-        <v>300</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>60000</v>
-      </c>
-      <c r="D51">
-        <v>-3000</v>
-      </c>
-      <c r="E51">
-        <v>300</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>60000</v>
-      </c>
-      <c r="D52">
-        <v>-3000</v>
-      </c>
-      <c r="E52">
-        <v>300</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D494C1-D9E5-4398-9A22-F1C45917D632}">
-  <dimension ref="A1:M22"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="8" width="6.21875" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2814,40 +5101,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3019,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>60000</v>
@@ -3060,7 +5347,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -3101,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>60000</v>
@@ -3142,1853 +5429,6 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>60000</v>
-      </c>
-      <c r="D9">
-        <v>-10000</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>60000</v>
-      </c>
-      <c r="D10">
-        <v>-10000</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>60000</v>
-      </c>
-      <c r="D11">
-        <v>-10000</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-30</v>
-      </c>
-      <c r="C12">
-        <v>60000</v>
-      </c>
-      <c r="D12">
-        <v>-10000</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-30</v>
-      </c>
-      <c r="C13">
-        <v>60000</v>
-      </c>
-      <c r="D13">
-        <v>-10000</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-30</v>
-      </c>
-      <c r="C14">
-        <v>60000</v>
-      </c>
-      <c r="D14">
-        <v>-10000</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-30</v>
-      </c>
-      <c r="C15">
-        <v>60000</v>
-      </c>
-      <c r="D15">
-        <v>-10000</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>-30</v>
-      </c>
-      <c r="C16">
-        <v>60000</v>
-      </c>
-      <c r="D16">
-        <v>-10000</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>-30</v>
-      </c>
-      <c r="C17">
-        <v>60000</v>
-      </c>
-      <c r="D17">
-        <v>-10000</v>
-      </c>
-      <c r="E17">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-30</v>
-      </c>
-      <c r="C18">
-        <v>60000</v>
-      </c>
-      <c r="D18">
-        <v>-10000</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-30</v>
-      </c>
-      <c r="C19">
-        <v>60000</v>
-      </c>
-      <c r="D19">
-        <v>-10000</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-30</v>
-      </c>
-      <c r="C20">
-        <v>60000</v>
-      </c>
-      <c r="D20">
-        <v>-10000</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-30</v>
-      </c>
-      <c r="C21">
-        <v>60000</v>
-      </c>
-      <c r="D21">
-        <v>-10000</v>
-      </c>
-      <c r="E21">
-        <v>300</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-30</v>
-      </c>
-      <c r="C22">
-        <v>60000</v>
-      </c>
-      <c r="D22">
-        <v>-10000</v>
-      </c>
-      <c r="E22">
-        <v>300</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1F29E-C487-477C-A176-7E7F6D836544}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <v>60000</v>
-      </c>
-      <c r="D2">
-        <v>-10000</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-      <c r="C3">
-        <v>60000</v>
-      </c>
-      <c r="D3">
-        <v>-10000</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.4</v>
-      </c>
-      <c r="C4">
-        <v>60000</v>
-      </c>
-      <c r="D4">
-        <v>-10000</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <v>60000</v>
-      </c>
-      <c r="D5">
-        <v>-10000</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-      <c r="C6">
-        <v>60000</v>
-      </c>
-      <c r="D6">
-        <v>-10000</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.4</v>
-      </c>
-      <c r="C7">
-        <v>60000</v>
-      </c>
-      <c r="D7">
-        <v>-10000</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="C8">
-        <v>60000</v>
-      </c>
-      <c r="D8">
-        <v>-10000</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.4</v>
-      </c>
-      <c r="C9">
-        <v>60000</v>
-      </c>
-      <c r="D9">
-        <v>-10000</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.4</v>
-      </c>
-      <c r="C10">
-        <v>60000</v>
-      </c>
-      <c r="D10">
-        <v>-10000</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.4</v>
-      </c>
-      <c r="C11">
-        <v>60000</v>
-      </c>
-      <c r="D11">
-        <v>-10000</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.4</v>
-      </c>
-      <c r="C12">
-        <v>60000</v>
-      </c>
-      <c r="D12">
-        <v>-10000</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>60000</v>
-      </c>
-      <c r="D13">
-        <v>-10000</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
-      <c r="C14">
-        <v>60000</v>
-      </c>
-      <c r="D14">
-        <v>-10000</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>60000</v>
-      </c>
-      <c r="D15">
-        <v>-10000</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.4</v>
-      </c>
-      <c r="C16">
-        <v>60000</v>
-      </c>
-      <c r="D16">
-        <v>-10000</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.4</v>
-      </c>
-      <c r="C17">
-        <v>60000</v>
-      </c>
-      <c r="D17">
-        <v>-10000</v>
-      </c>
-      <c r="E17">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.4</v>
-      </c>
-      <c r="C18">
-        <v>60000</v>
-      </c>
-      <c r="D18">
-        <v>-10000</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.4</v>
-      </c>
-      <c r="C19">
-        <v>60000</v>
-      </c>
-      <c r="D19">
-        <v>-10000</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.4</v>
-      </c>
-      <c r="C20">
-        <v>60000</v>
-      </c>
-      <c r="D20">
-        <v>-10000</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0.4</v>
-      </c>
-      <c r="C21">
-        <v>60000</v>
-      </c>
-      <c r="D21">
-        <v>-10000</v>
-      </c>
-      <c r="E21">
-        <v>300</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0.4</v>
-      </c>
-      <c r="C22">
-        <v>60000</v>
-      </c>
-      <c r="D22">
-        <v>-10000</v>
-      </c>
-      <c r="E22">
-        <v>300</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB44BC-6D82-4D29-A730-CAC1A2674E43}">
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>60000</v>
-      </c>
-      <c r="D2">
-        <v>-10000</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>60000</v>
-      </c>
-      <c r="D3">
-        <v>-10000</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>60000</v>
-      </c>
-      <c r="D4">
-        <v>-10000</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>60000</v>
-      </c>
-      <c r="D5">
-        <v>-10000</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>60000</v>
-      </c>
-      <c r="D6">
-        <v>-10000</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>60000</v>
-      </c>
-      <c r="D7">
-        <v>-10000</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>60000</v>
-      </c>
-      <c r="D8">
-        <v>-10000</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
@@ -5600,47 +6040,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35877203-A9BC-46D7-9778-000619998117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -8428,6 +8869,970 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>60000</v>
+      </c>
+      <c r="D2">
+        <v>-10000</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>-10000</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>-10000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>-10000</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>-10000</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>-10000</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>-10000</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>-10000</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>-10000</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>-10000</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>-10000</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>-10000</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>-10000</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>-10000</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>-10000</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>-10000</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>-10000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>-10000</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>-10000</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>